--- a/doc/test.xlsx
+++ b/doc/test.xlsx
@@ -20,21 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
-    <t xml:space="preserve">学校举行英语竞赛，老师心疼地对她说：“英子，别来了，你地课本知识念好就很不简单了，注意休息。”她皱皱眉头，用狐疑的目光看着老师问：“老师，你是怕我没时间，考不过他们！“接着又释然地笑了笑说：“我能行，老师，我能比他们强。”竞赛结果出来了，她果然名列榜首，她紧紧地抱住奖状和奖品，将她那苍白地脸紧紧地贴在上面……老师要她说两句，她很自信地笑了笑：“我能成功地，你们也同样行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
+    <t xml:space="preserve">20140244</t>
   </si>
 </sst>
 </file>
@@ -45,7 +33,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -66,12 +54,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,7 +103,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,15 +112,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,50 +140,41 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.780612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
